--- a/rubrics/mini-portfolio-rubric.xlsx
+++ b/rubrics/mini-portfolio-rubric.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizabolton/Dropbox/U of T/STA 303/Course guide/rubrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C94D74-B208-B04C-A697-B0618F12A318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB865251-B9AA-0E4F-872C-73183EE4BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{35F657A8-2C5B-AE4C-BB90-219EB7BAA18B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{35F657A8-2C5B-AE4C-BB90-219EB7BAA18B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>Commenting of code</t>
   </si>
@@ -124,12 +123,6 @@
     <t>Rmd can be run to recreate the submitted PDF exactly AND both Rmd and PDF were submitted. E.g., Seeds set correctly and no errors that prevent knitting.</t>
   </si>
   <si>
-    <t>Correct libraries loaded without package messages being included in the PDF, and the chunk is named 'setup'. This code chunk  appears in the PDF, under the apporpriate heading.</t>
-  </si>
-  <si>
-    <t>Correct libraries loaded, but chunk may not be named or printed in the PDf appropriately.</t>
-  </si>
-  <si>
     <t>Correct libraries loaded but several instructions not followed.</t>
   </si>
   <si>
@@ -151,182 +144,188 @@
     <t>Introduction provides a mostly specific introduction to the mini-portfolio, explaining the context of the work and describing the skills demonstrated with mostly reasonble understanding. It is no longer than one page.</t>
   </si>
   <si>
-    <t>Several missing written compoennts OR considerable writing and grammatical issues that completely obscure the meaning OR lots of slang and inappropriate word choice.</t>
-  </si>
-  <si>
-    <t>All prompts are answered clearly and specificly. Strong evidence of reflective thought. Tone is appropriately professional for academic/work context.</t>
-  </si>
-  <si>
-    <t>All prompts are addressed appropriately. Reasonably clear and mostly specific, though perhaps with some overaly general comments that are not more deeply developed. Evidence of some good reflective though. Tone is appropriately professional for academic/work context.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majority of prompts adressed appropriately, but may be overally general AND/OR lack evidence of thoughtful relfection AND/OR the tone may be somewhat inappropriate for a professional context.
+    <t>General (multiple components)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code is well formatted and easy to read. </t>
+  </si>
+  <si>
+    <t>No R code in document OR major issues in clarity of code as to be mostly unreadable.</t>
+  </si>
+  <si>
+    <t>All instructions correctly followed and appropriate chart produced. A small number of minor errors allowable.</t>
+  </si>
+  <si>
+    <t>Most instructions correctly followed and a mostly appropriate chart produced, but some major omissions or errors or a large number of minor errors.</t>
+  </si>
+  <si>
+    <t>An attempt made to complete the instructions, but appropriate plot not created generated.</t>
+  </si>
+  <si>
+    <t>Task 3 writing</t>
+  </si>
+  <si>
+    <t>Task 3 code and chart</t>
+  </si>
+  <si>
+    <t>Task 2 code and chart</t>
+  </si>
+  <si>
+    <t>Task 4 goal</t>
+  </si>
+  <si>
+    <t>Task 4 wrangling</t>
+  </si>
+  <si>
+    <t>Task 4 viz</t>
+  </si>
+  <si>
+    <t>Task 4 test</t>
+  </si>
+  <si>
+    <t>All instructions correctly followed and appropriate charts produced. A small number of minor errors allowable.</t>
+  </si>
+  <si>
+    <t>Most instructions correctly followed and mostly appropriate charts produced, but some major omissions or errors or a large number of minor errors.</t>
+  </si>
+  <si>
+    <t>A reasonable attempt made to complete the instructions, but with so many omissions or error that the goal is not fully achieved.</t>
+  </si>
+  <si>
+    <t>Goal correctly stated and put into own words, but may lack some clarity OR not be somewhat inappropriate for the audience.</t>
+  </si>
+  <si>
+    <t>An attempt made to complete the instructions, but final dataset</t>
+  </si>
+  <si>
+    <t>Most instructions correctly followed.</t>
+  </si>
+  <si>
+    <t>All instructions correctly followed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing or goal not achieved. </t>
+  </si>
+  <si>
+    <t>Missing or more than one of the issues in the Adequate column.</t>
+  </si>
+  <si>
+    <t>Missing OR significantly off topic OR totally inappropriate for audience OR longer than one page.</t>
+  </si>
+  <si>
+    <t>Some evidence of understanding of the course and the skills demonstrated in this assessment shown, but lacks clarity/specificity. May be someone inappropriate for specified audience. No longer than one page.</t>
+  </si>
+  <si>
+    <t>Mostly correct plot produced. (Carryover errors from wrangling ignored.)</t>
+  </si>
+  <si>
+    <t>Fully correct plot produced. (Carryover errors from wrangling ignored.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct test chosen and clearly justified. Both versions (test function +  lm()) correctly implemented and interpretation of p-value correctly put into plain language. </t>
+  </si>
+  <si>
+    <t>Incorrect test chosen OR major errors in interpretation of p-value.</t>
+  </si>
+  <si>
+    <t>Some reasonable comments, though they would be only limited use to a reader.</t>
+  </si>
+  <si>
+    <t>Reasonable comments, though may be unhelpful to a reader in some sections.</t>
+  </si>
+  <si>
+    <t>Code is well-commented and so that a new reader could pick up and get a strong idea of what was being done, where—even if they are not an R coder.</t>
+  </si>
+  <si>
+    <t>Well organized, follows a logical structure. Word count included at the end.</t>
+  </si>
+  <si>
+    <t>Some structure but difficult to follow.</t>
+  </si>
+  <si>
+    <t>The organization follows a mostly logical structure, with some issues in paragraphing OR meets criteria for excellent but word count not included at the end.</t>
+  </si>
+  <si>
+    <t>A conclusion is present but does not completely summarise the central ideas.</t>
+  </si>
+  <si>
+    <t>A clear conclusion summarizes the central ideas.</t>
+  </si>
+  <si>
+    <t>An introduction is present but is only weakly connected to the topic/body of the writing sample or very somewhat generic.</t>
+  </si>
+  <si>
+    <t>An introduction is present but may lack some connection to the topic/body of the writing sample or is somewhat generic.</t>
+  </si>
+  <si>
+    <t>Rmd does not successfully knit OR was not included in the upload.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Percentage for component</t>
+  </si>
+  <si>
+    <t>Readability of R code</t>
+  </si>
+  <si>
+    <t>Correct test chosen, but without sufficient justification OR p-value description incorrect/missing OR incorrect test chosen but everything else done to good level.</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Several missing written components OR considerable writing and grammatical issues that completely obscure the meaning OR lots of slang and inappropriate word choice.</t>
+  </si>
+  <si>
+    <t>Correct libraries loaded, but chunk may not be named or printed in the PDF appropriately.</t>
+  </si>
+  <si>
+    <t>Correct libraries loaded without package messages being included in the PDF, and the chunk is named 'setup'. This code chunk  appears in the PDF, under the appropriate heading.</t>
+  </si>
+  <si>
+    <t>Statement of % of intervals that capture the  population parameter is incorrect OR hardcoded OR major incorrect claims made OR part of prompt not addressed.</t>
+  </si>
+  <si>
+    <t>Statement of % of intervals that capture the  population parameter is correct and set programmatically (not hardcoded). A mostly clear and correct explanation of why we can show the pop parameter on this chart AND appropriate discussion of why this is not usually the case in practice. Minor omissions allowable, but should not make any incorrect claims.</t>
+  </si>
+  <si>
+    <t>Statement of % of intervals that capture the  population parameter is correct and set programmatically (not hardcoded). Clear and correct explanation of why we can show the pop parameter on this chart AND appropriate discussion of why this is not usually the case in practice.</t>
+  </si>
+  <si>
+    <t>Attempt made to put goal in own words, but paraphrasing insufficient OR description of goal includes many errors OR description inappropriate for the audience.</t>
+  </si>
+  <si>
+    <t>Goal clearly, correctly and succinctly stated in the writers own words, in a way that is appropriate for the specified audience.</t>
+  </si>
+  <si>
+    <t>An attempt at a plot that would fulfil the instructions, but many errors or omissions.  (Carryover errors from wrangling ignored.)</t>
+  </si>
+  <si>
+    <t>Correct test chosen but justification somewhat lacking OR lm() implementation missing OR p-value interpretation had minor errors OR incorrect test chosen but everything else done to excellent level.</t>
+  </si>
+  <si>
+    <t>No relevant comments or some comments, but limited or inappropriate.</t>
+  </si>
+  <si>
+    <t>Code is mostly well formatted, but some inappropriate choices make some sections difficult to read.</t>
+  </si>
+  <si>
+    <t>A clear introduction succinctly introduces the central ideas and purpose of this writing sample.</t>
+  </si>
+  <si>
+    <t>No reflection OR prompts not addressed appropriately/answers off topic OR inappropriate tone for reflection in a professional context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majority of prompts addressed appropriately, but may be overly general AND/OR lack evidence of thoughtful reflection AND/OR the tone may be somewhat inappropriate for a professional context.
 </t>
   </si>
   <si>
-    <t>No reflection OR prompts not addressed approrpiately/answers off topic OR inappropriate tone for reflection in a professional context.</t>
-  </si>
-  <si>
-    <t>General (multiple components)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code is well formatted and easy to read. </t>
-  </si>
-  <si>
-    <t>Code is mostly well formatted, but some innapropriate choices make some sections difficicult to read.</t>
-  </si>
-  <si>
-    <t>Readiability of R code</t>
-  </si>
-  <si>
-    <t>No R code in document OR major issues in clarity of code as to be mostly unreadable.</t>
-  </si>
-  <si>
-    <t>All instructions correctly followed and appropriate chart produced. A small number of minor errors allowable.</t>
-  </si>
-  <si>
-    <t>Most instructions correctly followed and a mostly appropriate chart produced, but some major omissions or errors or a large number of minor errors.</t>
-  </si>
-  <si>
-    <t>An attempt made to complete the instructions, but appropriate plot not created generated.</t>
-  </si>
-  <si>
-    <t>Task 3 writing</t>
-  </si>
-  <si>
-    <t>Task 3 code and chart</t>
-  </si>
-  <si>
-    <t>Task 2 code and chart</t>
-  </si>
-  <si>
-    <t>Task 4 goal</t>
-  </si>
-  <si>
-    <t>Task 4 wrangling</t>
-  </si>
-  <si>
-    <t>Task 4 viz</t>
-  </si>
-  <si>
-    <t>Task 4 test</t>
-  </si>
-  <si>
-    <t>All instructions correctly followed and appropriate charts produced. A small number of minor errors allowable.</t>
-  </si>
-  <si>
-    <t>Most instructions correctly followed and mostly appropriate charts produced, but some major omissions or errors or a large number of minor errors.</t>
-  </si>
-  <si>
-    <t>A reasonable attempt made to complete the instructions, but with so many omissions or error that the goal is not fully achieved.</t>
-  </si>
-  <si>
-    <t>Statement of % of intervals that capture the the population parameter is correct and set programmatically (not hardcoded). Clear and correct explanation of why we can show the pop parameter on this chart AND appropriate disucssion of why this is not usually the case in practice.</t>
-  </si>
-  <si>
-    <t>Statement of % of intervals that capture the the population parameter is correct and set programmatically (not hardcoded). A mostly clear and correct explanation of why we can show the pop parameter on this chart AND appropriate disucssion of why this is not usually the case in practice. Minor omissions allowable, but should not make any incorrect claims.</t>
-  </si>
-  <si>
-    <t>Statement of % of intervals that capture the the population parameter is incorrect OR hardcoded OR major incorrect claims made OR part of prompt not addressed.</t>
-  </si>
-  <si>
-    <t>Goal correctly stated and put into own words, but may lack some clarity OR not be somewhat inappropriate for the audience.</t>
-  </si>
-  <si>
-    <t>Goal clearly, correctly and succintly stated in the writers own words, in a way that is appropriate for the specified audience.</t>
-  </si>
-  <si>
-    <t>Attempt made to put goal in own words, but paraprashing insufficient OR description of goal includes many errors OR description inappropriate for the audience.</t>
-  </si>
-  <si>
-    <t>An attempt made to complete the instructions, but final dataset</t>
-  </si>
-  <si>
-    <t>Most instructions correctly followed.</t>
-  </si>
-  <si>
-    <t>All instructions correctly followed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing or goal not achieved. </t>
-  </si>
-  <si>
-    <t>Missing or more than one of the issues in the Adequate column.</t>
-  </si>
-  <si>
-    <t>Missing OR significantly off topic OR totally inappropriate for audience OR longer than one page.</t>
-  </si>
-  <si>
-    <t>Some evidence of understanding of the course and the skills demonstrated in this assessment shown, but lacks clarity/specificity. May be someone inappropriate for specified audience. No longer than one page.</t>
-  </si>
-  <si>
-    <t>Mostly correct plot produced. (Carryover errors from wrangling ignored.)</t>
-  </si>
-  <si>
-    <t>Fully correct plot produced. (Carryover errors from wrangling ignored.)</t>
-  </si>
-  <si>
-    <t>An attempt at a plot that would fufil the instructions, but many errors or omissions.  (Carryover errors from wrangling ignored.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct test chosen and clearly justified. Both versions (test function +  lm()) correctly implemented and interpretation of p-value correctly put into plain language. </t>
-  </si>
-  <si>
-    <t>Correct test chosen but justification somewhat lacking OR lm() implementation missing OR p-value interpretion had minor errors.</t>
-  </si>
-  <si>
-    <t>Correct test chosen, but without sufficient justification OR p-value description incorrect/missing.</t>
-  </si>
-  <si>
-    <t>Incorrect test chosen OR major errors in interpretation of p-value.</t>
-  </si>
-  <si>
-    <t>Some reasonable comments, though they would be only limited use to a reader.</t>
-  </si>
-  <si>
-    <t>No relevant comments or some comments, but limited or innappropriate.</t>
-  </si>
-  <si>
-    <t>Reasonable comments, though may be unhelpful to a reader in some sections.</t>
-  </si>
-  <si>
-    <t>Code is well-commented and so that a new reader could pick up and get a strong idea of what was being done, where—even if they are not an R coder.</t>
-  </si>
-  <si>
-    <t>Well organized, follows a logical structure. Word count included at the end.</t>
-  </si>
-  <si>
-    <t>Some structure but difficult to follow.</t>
-  </si>
-  <si>
-    <t>The organization follows a mostly logical structure, with some issues in paragraphing OR meets criteria for excellent but word count not included at the end.</t>
-  </si>
-  <si>
-    <t>A conclusion is present but does not completely summarise the central ideas.</t>
-  </si>
-  <si>
-    <t>A clear conclusion summarizes the central ideas.</t>
-  </si>
-  <si>
-    <t>A clear introduction succintly introduces the central ideas and purpose of this writing sample.</t>
-  </si>
-  <si>
-    <t>An introduction is present but is only weakly connected to the topic/body of the writing sample or very somewhat generic.</t>
-  </si>
-  <si>
-    <t>An introduction is present but may lack some connection to the topic/body of the writing sample or is somewhat generic.</t>
-  </si>
-  <si>
-    <t>Rmd does not successfully knit OR was not included in the upload.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Percentage for component</t>
-  </si>
-  <si>
-    <t>Readability of R code</t>
+    <t>All prompts are addressed appropriately. Reasonably clear and mostly specific, though perhaps with some overly general comments that are not more deeply developed. Evidence of some good reflective though. Tone is appropriately professional for academic/work context.</t>
+  </si>
+  <si>
+    <t>All prompts are answered clearly and specifically. Strong evidence of reflective thought. Tone is appropriately professional for academic/work context.</t>
   </si>
 </sst>
 </file>
@@ -370,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -380,12 +379,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -393,6 +386,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432585BF-F730-4947-AC22-BB862E73B92D}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,16 +719,16 @@
     <col min="4" max="4" width="40.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="39" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="9"/>
+    <col min="7" max="7" width="10.83203125" style="7"/>
     <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -746,11 +742,14 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -758,22 +757,25 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -781,22 +783,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="8">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -804,169 +809,193 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5">
+        <v>82</v>
+      </c>
+      <c r="G4" s="8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G9" s="8"/>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -974,45 +1003,51 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="8">
+        <v>66</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="8">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1020,22 +1055,25 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1054,11 +1092,14 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H15" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1069,17 +1110,20 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1090,17 +1134,20 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G17" s="8"/>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1114,14 +1161,17 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1129,30 +1179,33 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="8">
+        <v>96</v>
+      </c>
+      <c r="G19" s="6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1163,8 +1216,11 @@
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>0.05</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
